--- a/0.Raw_Data/GBS_mastersheet_LC.xlsx
+++ b/0.Raw_Data/GBS_mastersheet_LC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/leacavalli_g_harvard_edu/Documents/Documents/GitHub/BCH-GBS/0.Raw_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/leacavalli_g_harvard_edu/Documents/Documents/Harvard/Research/GBS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{D3703149-08C5-47F7-94B2-98516E2D1515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F7408A9-9CC1-4EF6-8933-0D4A85DF6AA6}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-5490" windowWidth="29040" windowHeight="15720" xr2:uid="{A92C1F1B-CEF6-1A48-A50A-DF3E051DC804}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{A92C1F1B-CEF6-1A48-A50A-DF3E051DC804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P72" sqref="P72"/>
+      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/0.Raw_Data/GBS_mastersheet_LC.xlsx
+++ b/0.Raw_Data/GBS_mastersheet_LC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/leacavalli_g_harvard_edu/Documents/Documents/Harvard/Research/GBS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/leacavalli_g_harvard_edu/Documents/Documents/GitHub/BCH-GBS/0.Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D3703149-08C5-47F7-94B2-98516E2D1515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F7408A9-9CC1-4EF6-8933-0D4A85DF6AA6}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{D3703149-08C5-47F7-94B2-98516E2D1515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3603833E-F188-4D96-AE59-C02937DCEFC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{A92C1F1B-CEF6-1A48-A50A-DF3E051DC804}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="382">
   <si>
     <t>ID</t>
   </si>
@@ -839,9 +839,6 @@
     <t>amp/ceftotaxime/penicillin</t>
   </si>
   <si>
-    <t>from CVL</t>
-  </si>
-  <si>
     <t>67_S67</t>
   </si>
   <si>
@@ -908,9 +905,6 @@
     <t>crp - 9.25</t>
   </si>
   <si>
-    <t>also grew enterococcus feceium</t>
-  </si>
-  <si>
     <t>75_S75</t>
   </si>
   <si>
@@ -950,9 +944,6 @@
     <t>amp/cefepime</t>
   </si>
   <si>
-    <t>GBS and ALL</t>
-  </si>
-  <si>
     <t>82_S82</t>
   </si>
   <si>
@@ -1185,6 +1176,12 @@
   </si>
   <si>
     <t>home</t>
+  </si>
+  <si>
+    <t>MRN</t>
+  </si>
+  <si>
+    <t>Post_discharge_and_complication_notes</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1427,6 +1424,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,6 +1442,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1743,11 +1747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F405CC7F-10A6-EB4A-B44D-579643EE08BB}">
   <dimension ref="A1:CK98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="BZ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
+      <selection pane="bottomRight" activeCell="CJ1" sqref="CJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1789,15 +1793,18 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G1" s="1"/>
+      <c r="H1" t="s">
+        <v>380</v>
+      </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -2033,7 +2040,9 @@
       <c r="CI1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="CJ1" s="1"/>
+      <c r="CJ1" s="47" t="s">
+        <v>381</v>
+      </c>
       <c r="CK1" s="1"/>
     </row>
     <row r="2" spans="1:89" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2053,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -2297,10 +2306,10 @@
     </row>
     <row r="3" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C3" s="17">
         <v>44412</v>
@@ -2312,7 +2321,7 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I3" s="26">
         <v>100</v>
@@ -2343,13 +2352,13 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -2499,7 +2508,7 @@
         <v>88</v>
       </c>
       <c r="BT3" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BU3">
         <v>0.32</v>
@@ -2544,7 +2553,7 @@
         <v>11.5</v>
       </c>
       <c r="CJ3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2564,7 +2573,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I4" s="12">
         <v>11</v>
@@ -2818,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I5" s="12">
         <v>12</v>
@@ -3072,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I6" s="12">
         <v>13</v>
@@ -3328,7 +3337,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I7" s="12">
         <v>14</v>
@@ -3584,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I8" s="12">
         <v>15</v>
@@ -3840,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I9" s="12">
         <v>16</v>
@@ -4094,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I10" s="2">
         <v>17</v>
@@ -4336,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I11" s="2">
         <v>18</v>
@@ -4371,7 +4380,7 @@
       </c>
       <c r="T11" s="20"/>
       <c r="U11" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V11" s="20"/>
       <c r="W11">
@@ -4584,7 +4593,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I12" s="12">
         <v>19</v>
@@ -4840,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G13" s="34"/>
       <c r="I13" s="36">
@@ -5098,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I14" s="12">
         <v>20</v>
@@ -5354,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I15" s="12">
         <v>21</v>
@@ -5610,7 +5619,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I16" s="12">
         <v>22</v>
@@ -5866,7 +5875,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I17" s="12">
         <v>23</v>
@@ -6122,7 +6131,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I18" s="12">
         <v>24</v>
@@ -6378,7 +6387,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I19" s="12">
         <v>25</v>
@@ -6628,7 +6637,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I20" s="12">
         <v>26</v>
@@ -6845,7 +6854,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I21" s="12">
         <v>27</v>
@@ -7101,7 +7110,7 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I22" s="12">
         <v>28</v>
@@ -7357,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I23" s="12">
         <v>29</v>
@@ -7613,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I24" s="12">
         <v>3</v>
@@ -7852,7 +7861,7 @@
         <v>84</v>
       </c>
       <c r="CJ24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -7872,7 +7881,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I25" s="12">
         <v>30</v>
@@ -8128,7 +8137,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I26" s="12">
         <v>31</v>
@@ -8382,7 +8391,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I27" s="12">
         <v>33</v>
@@ -8636,7 +8645,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I28" s="12">
         <v>34</v>
@@ -8890,7 +8899,7 @@
         <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I29" s="12">
         <v>35</v>
@@ -9144,7 +9153,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I30" s="12">
         <v>36</v>
@@ -9382,7 +9391,7 @@
       <c r="CH30">
         <v>56</v>
       </c>
-      <c r="CI30" t="s">
+      <c r="CJ30" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9403,7 +9412,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I31" s="12">
         <v>37</v>
@@ -9659,7 +9668,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I32" s="12">
         <v>38</v>
@@ -9898,7 +9907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>189</v>
       </c>
@@ -9915,7 +9924,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I33" s="12">
         <v>39</v>
@@ -10154,7 +10163,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -10171,7 +10180,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I34" s="12">
         <v>4</v>
@@ -10408,7 +10417,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -10425,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I35" s="12">
         <v>40</v>
@@ -10662,7 +10671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>196</v>
       </c>
@@ -10679,7 +10688,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I36" s="12">
         <v>41</v>
@@ -10917,11 +10926,11 @@
       <c r="CH36">
         <v>27</v>
       </c>
-      <c r="CI36" t="s">
+      <c r="CJ36" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -10938,7 +10947,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I37" s="12">
         <v>42</v>
@@ -11177,7 +11186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -11194,7 +11203,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I38" s="12">
         <v>43</v>
@@ -11433,7 +11442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -11450,7 +11459,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I39" s="12">
         <v>44</v>
@@ -11689,7 +11698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -11706,7 +11715,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I40" s="12">
         <v>45</v>
@@ -11945,7 +11954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>207</v>
       </c>
@@ -11962,7 +11971,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I41" s="12">
         <v>46</v>
@@ -12201,7 +12210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -12218,7 +12227,7 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I42" s="12">
         <v>47</v>
@@ -12457,7 +12466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -12474,7 +12483,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I43" s="12">
         <v>48</v>
@@ -12711,7 +12720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -12728,7 +12737,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I44" s="12">
         <v>49</v>
@@ -12967,7 +12976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -12984,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I45" s="12">
         <v>5</v>
@@ -13221,7 +13230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -13238,7 +13247,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I46" s="12">
         <v>50</v>
@@ -13477,7 +13486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -13494,7 +13503,7 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I47" s="12">
         <v>51</v>
@@ -13733,7 +13742,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>226</v>
       </c>
@@ -13750,7 +13759,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I48" s="12">
         <v>52</v>
@@ -14006,7 +14015,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I49" s="12">
         <v>53</v>
@@ -14262,7 +14271,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I50" s="12">
         <v>54</v>
@@ -14500,7 +14509,7 @@
       <c r="CH50">
         <v>77</v>
       </c>
-      <c r="CI50" t="s">
+      <c r="CJ50" t="s">
         <v>235</v>
       </c>
     </row>
@@ -14521,7 +14530,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I51" s="12">
         <v>55</v>
@@ -14780,7 +14789,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I52" s="12">
         <v>56</v>
@@ -15039,7 +15048,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I53" s="12">
         <v>57</v>
@@ -15295,7 +15304,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I54" s="12">
         <v>58</v>
@@ -15551,7 +15560,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I55" s="12">
         <v>59</v>
@@ -15810,7 +15819,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I56" s="12">
         <v>6</v>
@@ -16064,7 +16073,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I57" s="12">
         <v>60</v>
@@ -16320,7 +16329,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I58" s="12">
         <v>61</v>
@@ -16576,7 +16585,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I59" s="12">
         <v>62</v>
@@ -16835,7 +16844,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I60" s="12">
         <v>63</v>
@@ -17091,7 +17100,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I61" s="12">
         <v>64</v>
@@ -17347,7 +17356,7 @@
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I62" s="26">
         <v>65</v>
@@ -17584,7 +17593,7 @@
       <c r="CH62">
         <v>60.3</v>
       </c>
-      <c r="CI62" t="s">
+      <c r="CJ62" t="s">
         <v>262</v>
       </c>
     </row>
@@ -17605,7 +17614,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I63" s="26">
         <v>66</v>
@@ -17840,16 +17849,13 @@
       <c r="CH63">
         <v>62.3</v>
       </c>
-      <c r="CI63" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="64" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C64" s="17">
         <v>43103</v>
@@ -17861,16 +17867,16 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I64" s="26">
         <v>67</v>
       </c>
       <c r="J64" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L64" s="33" t="s">
         <v>80</v>
@@ -18052,7 +18058,7 @@
         <v>83</v>
       </c>
       <c r="BT64" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BU64">
         <v>1.94</v>
@@ -18097,12 +18103,12 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="65" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C65" s="17">
         <v>43103</v>
@@ -18114,7 +18120,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I65" s="26">
         <v>68</v>
@@ -18301,7 +18307,7 @@
         <v>83</v>
       </c>
       <c r="BT65" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BU65">
         <v>1.94</v>
@@ -18346,15 +18352,15 @@
         <v>25.8</v>
       </c>
       <c r="CI65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="66" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>273</v>
-      </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C66" s="17">
         <v>43157</v>
@@ -18366,7 +18372,7 @@
         <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I66" s="26">
         <v>69</v>
@@ -18559,7 +18565,7 @@
         <v>83</v>
       </c>
       <c r="BT66" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BU66">
         <v>2.25</v>
@@ -18604,10 +18610,10 @@
         <v>22.8</v>
       </c>
       <c r="CI66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -18624,7 +18630,7 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I67" s="12">
         <v>7</v>
@@ -18661,7 +18667,7 @@
       </c>
       <c r="T67" s="8"/>
       <c r="U67" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="V67" s="8" t="s">
         <v>97</v>
@@ -18859,12 +18865,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C68" s="17">
         <v>43157</v>
@@ -18876,16 +18882,16 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I68" s="26">
         <v>70</v>
       </c>
       <c r="J68" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L68" s="33" t="s">
         <v>80</v>
@@ -19114,15 +19120,15 @@
         <v>11.7</v>
       </c>
       <c r="CI68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="69" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>277</v>
-      </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C69" s="17">
         <v>43157</v>
@@ -19134,7 +19140,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I69" s="26">
         <v>71</v>
@@ -19370,15 +19376,15 @@
         <v>11.7</v>
       </c>
       <c r="CI69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="70" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>279</v>
-      </c>
       <c r="B70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C70" s="17">
         <v>43201</v>
@@ -19390,7 +19396,7 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I70" s="26">
         <v>72</v>
@@ -19431,157 +19437,157 @@
         <v>122</v>
       </c>
       <c r="V70" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+      <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>1</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+      <c r="AU70">
+        <v>1</v>
+      </c>
+      <c r="AV70">
+        <v>1</v>
+      </c>
+      <c r="AW70">
+        <v>1</v>
+      </c>
+      <c r="AX70">
+        <v>1</v>
+      </c>
+      <c r="AY70">
+        <v>1</v>
+      </c>
+      <c r="AZ70">
+        <v>1</v>
+      </c>
+      <c r="BA70">
+        <v>1</v>
+      </c>
+      <c r="BB70">
+        <v>1</v>
+      </c>
+      <c r="BC70">
+        <v>1</v>
+      </c>
+      <c r="BD70">
+        <v>1</v>
+      </c>
+      <c r="BE70">
+        <v>1</v>
+      </c>
+      <c r="BF70">
+        <v>1</v>
+      </c>
+      <c r="BG70">
+        <v>1</v>
+      </c>
+      <c r="BH70">
+        <v>1</v>
+      </c>
+      <c r="BI70">
+        <v>1</v>
+      </c>
+      <c r="BJ70">
+        <v>1</v>
+      </c>
+      <c r="BK70">
+        <v>1</v>
+      </c>
+      <c r="BL70">
+        <v>1</v>
+      </c>
+      <c r="BM70">
+        <v>1</v>
+      </c>
+      <c r="BN70">
+        <v>1</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ70" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR70" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS70" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT70" s="23" t="s">
         <v>280</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>1</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>1</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>1</v>
-      </c>
-      <c r="AH70">
-        <v>1</v>
-      </c>
-      <c r="AI70">
-        <v>1</v>
-      </c>
-      <c r="AJ70">
-        <v>1</v>
-      </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
-      <c r="AL70">
-        <v>1</v>
-      </c>
-      <c r="AM70">
-        <v>1</v>
-      </c>
-      <c r="AN70">
-        <v>1</v>
-      </c>
-      <c r="AO70">
-        <v>1</v>
-      </c>
-      <c r="AP70">
-        <v>1</v>
-      </c>
-      <c r="AQ70">
-        <v>0</v>
-      </c>
-      <c r="AR70">
-        <v>1</v>
-      </c>
-      <c r="AS70">
-        <v>1</v>
-      </c>
-      <c r="AT70">
-        <v>1</v>
-      </c>
-      <c r="AU70">
-        <v>1</v>
-      </c>
-      <c r="AV70">
-        <v>1</v>
-      </c>
-      <c r="AW70">
-        <v>1</v>
-      </c>
-      <c r="AX70">
-        <v>1</v>
-      </c>
-      <c r="AY70">
-        <v>1</v>
-      </c>
-      <c r="AZ70">
-        <v>1</v>
-      </c>
-      <c r="BA70">
-        <v>1</v>
-      </c>
-      <c r="BB70">
-        <v>1</v>
-      </c>
-      <c r="BC70">
-        <v>1</v>
-      </c>
-      <c r="BD70">
-        <v>1</v>
-      </c>
-      <c r="BE70">
-        <v>1</v>
-      </c>
-      <c r="BF70">
-        <v>1</v>
-      </c>
-      <c r="BG70">
-        <v>1</v>
-      </c>
-      <c r="BH70">
-        <v>1</v>
-      </c>
-      <c r="BI70">
-        <v>1</v>
-      </c>
-      <c r="BJ70">
-        <v>1</v>
-      </c>
-      <c r="BK70">
-        <v>1</v>
-      </c>
-      <c r="BL70">
-        <v>1</v>
-      </c>
-      <c r="BM70">
-        <v>1</v>
-      </c>
-      <c r="BN70">
-        <v>1</v>
-      </c>
-      <c r="BO70">
-        <v>0</v>
-      </c>
-      <c r="BP70" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ70" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR70" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS70" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT70" s="23" t="s">
-        <v>281</v>
       </c>
       <c r="BU70">
         <v>6.65</v>
@@ -19626,15 +19632,15 @@
         <v>32.4</v>
       </c>
       <c r="CI70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C71" s="17">
         <v>43218</v>
@@ -19646,7 +19652,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I71" s="26">
         <v>73</v>
@@ -19687,157 +19693,157 @@
         <v>82</v>
       </c>
       <c r="V71" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
+      <c r="AU71">
+        <v>1</v>
+      </c>
+      <c r="AV71">
+        <v>1</v>
+      </c>
+      <c r="AW71">
+        <v>1</v>
+      </c>
+      <c r="AX71">
+        <v>1</v>
+      </c>
+      <c r="AY71">
+        <v>1</v>
+      </c>
+      <c r="AZ71">
+        <v>1</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>1</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>1</v>
+      </c>
+      <c r="BH71">
+        <v>1</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>1</v>
+      </c>
+      <c r="BK71">
+        <v>1</v>
+      </c>
+      <c r="BL71">
+        <v>1</v>
+      </c>
+      <c r="BM71">
+        <v>1</v>
+      </c>
+      <c r="BN71">
+        <v>1</v>
+      </c>
+      <c r="BO71">
+        <v>1</v>
+      </c>
+      <c r="BP71" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ71" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR71" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS71" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT71" s="23" t="s">
         <v>283</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71">
-        <v>1</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>1</v>
-      </c>
-      <c r="AC71">
-        <v>1</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>1</v>
-      </c>
-      <c r="AH71">
-        <v>1</v>
-      </c>
-      <c r="AI71">
-        <v>1</v>
-      </c>
-      <c r="AJ71">
-        <v>1</v>
-      </c>
-      <c r="AK71">
-        <v>1</v>
-      </c>
-      <c r="AL71">
-        <v>1</v>
-      </c>
-      <c r="AM71">
-        <v>1</v>
-      </c>
-      <c r="AN71">
-        <v>1</v>
-      </c>
-      <c r="AO71">
-        <v>1</v>
-      </c>
-      <c r="AP71">
-        <v>1</v>
-      </c>
-      <c r="AQ71">
-        <v>1</v>
-      </c>
-      <c r="AR71">
-        <v>1</v>
-      </c>
-      <c r="AS71">
-        <v>1</v>
-      </c>
-      <c r="AT71">
-        <v>1</v>
-      </c>
-      <c r="AU71">
-        <v>1</v>
-      </c>
-      <c r="AV71">
-        <v>1</v>
-      </c>
-      <c r="AW71">
-        <v>1</v>
-      </c>
-      <c r="AX71">
-        <v>1</v>
-      </c>
-      <c r="AY71">
-        <v>1</v>
-      </c>
-      <c r="AZ71">
-        <v>1</v>
-      </c>
-      <c r="BA71">
-        <v>1</v>
-      </c>
-      <c r="BB71">
-        <v>0</v>
-      </c>
-      <c r="BC71">
-        <v>0</v>
-      </c>
-      <c r="BD71">
-        <v>0</v>
-      </c>
-      <c r="BE71">
-        <v>1</v>
-      </c>
-      <c r="BF71">
-        <v>0</v>
-      </c>
-      <c r="BG71">
-        <v>1</v>
-      </c>
-      <c r="BH71">
-        <v>1</v>
-      </c>
-      <c r="BI71">
-        <v>0</v>
-      </c>
-      <c r="BJ71">
-        <v>1</v>
-      </c>
-      <c r="BK71">
-        <v>1</v>
-      </c>
-      <c r="BL71">
-        <v>1</v>
-      </c>
-      <c r="BM71">
-        <v>1</v>
-      </c>
-      <c r="BN71">
-        <v>1</v>
-      </c>
-      <c r="BO71">
-        <v>1</v>
-      </c>
-      <c r="BP71" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ71" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR71" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS71" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT71" s="23" t="s">
-        <v>284</v>
       </c>
       <c r="BU71">
         <v>4.79</v>
@@ -19882,15 +19888,15 @@
         <v>47.4</v>
       </c>
       <c r="CI71" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="72" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>286</v>
-      </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" s="17">
         <v>43235</v>
@@ -19902,7 +19908,7 @@
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I72" s="26">
         <v>74</v>
@@ -19938,10 +19944,10 @@
         <v>81</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V72" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W72">
         <v>0</v>
@@ -20136,18 +20142,15 @@
         <v>72</v>
       </c>
       <c r="CI72" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>289</v>
       </c>
-      <c r="CJ72" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>291</v>
-      </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C73" s="17">
         <v>43218</v>
@@ -20159,16 +20162,16 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I73" s="26">
         <v>75</v>
       </c>
       <c r="J73" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L73" s="33" t="s">
         <v>80</v>
@@ -20344,7 +20347,7 @@
         <v>83</v>
       </c>
       <c r="BT73" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BU73">
         <v>4.79</v>
@@ -20389,15 +20392,15 @@
         <v>47.4</v>
       </c>
       <c r="CI73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C74" s="17">
         <v>43260</v>
@@ -20409,7 +20412,7 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I74" s="26">
         <v>76</v>
@@ -20450,7 +20453,7 @@
         <v>82</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W74">
         <v>1</v>
@@ -20600,7 +20603,7 @@
         <v>88</v>
       </c>
       <c r="BT74" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BU74">
         <v>12.65</v>
@@ -20645,15 +20648,15 @@
         <v>34.200000000000003</v>
       </c>
       <c r="CI74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="75" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C75" s="17">
         <v>43609</v>
@@ -20665,7 +20668,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I75" s="26">
         <v>77</v>
@@ -20706,7 +20709,7 @@
         <v>122</v>
       </c>
       <c r="V75" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W75">
         <v>1</v>
@@ -20856,7 +20859,7 @@
         <v>83</v>
       </c>
       <c r="BT75" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BU75">
         <v>4.5599999999999996</v>
@@ -20901,12 +20904,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="76" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C76" s="17">
         <v>43609</v>
@@ -20918,16 +20921,16 @@
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I76" s="26">
         <v>78</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L76" s="33" t="s">
         <v>80</v>
@@ -20955,7 +20958,7 @@
         <v>122</v>
       </c>
       <c r="V76" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W76">
         <v>1</v>
@@ -21105,7 +21108,7 @@
         <v>83</v>
       </c>
       <c r="BT76" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BU76">
         <v>4.5599999999999996</v>
@@ -21150,12 +21153,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="77" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C77" s="17">
         <v>43615</v>
@@ -21167,7 +21170,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I77" s="26">
         <v>79</v>
@@ -21208,7 +21211,7 @@
         <v>182</v>
       </c>
       <c r="V77" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="W77">
         <v>1</v>
@@ -21403,7 +21406,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -21420,7 +21423,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I78" s="12">
         <v>8</v>
@@ -21659,12 +21662,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C79" s="17">
         <v>43628</v>
@@ -21676,7 +21679,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I79" s="26">
         <v>80</v>
@@ -21715,7 +21718,7 @@
         <v>122</v>
       </c>
       <c r="V79" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W79">
         <v>1</v>
@@ -21865,7 +21868,7 @@
         <v>88</v>
       </c>
       <c r="BT79" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BU79">
         <v>4.41</v>
@@ -21909,16 +21912,13 @@
       <c r="CH79">
         <v>57</v>
       </c>
-      <c r="CI79" t="s">
-        <v>304</v>
-      </c>
     </row>
-    <row r="80" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C80" s="17">
         <v>43650</v>
@@ -21930,7 +21930,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I80" s="26">
         <v>82</v>
@@ -21971,7 +21971,7 @@
         <v>122</v>
       </c>
       <c r="V80" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="W80">
         <v>1</v>
@@ -22121,7 +22121,7 @@
         <v>83</v>
       </c>
       <c r="BT80" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BU80">
         <v>4.55</v>
@@ -22166,12 +22166,12 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="81" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C81" s="17">
         <v>43697</v>
@@ -22183,7 +22183,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I81" s="26">
         <v>83</v>
@@ -22221,10 +22221,10 @@
         <v>81</v>
       </c>
       <c r="U81" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V81" s="31" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="W81">
         <v>1</v>
@@ -22374,7 +22374,7 @@
         <v>83</v>
       </c>
       <c r="BT81" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="BU81">
         <v>11.89</v>
@@ -22419,12 +22419,12 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C82" s="17">
         <v>43855</v>
@@ -22436,7 +22436,7 @@
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I82" s="26">
         <v>84</v>
@@ -22477,7 +22477,7 @@
         <v>148</v>
       </c>
       <c r="V82" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="W82">
         <v>1</v>
@@ -22627,7 +22627,7 @@
         <v>88</v>
       </c>
       <c r="BT82" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="BU82">
         <v>0.52</v>
@@ -22671,16 +22671,16 @@
       <c r="CH82">
         <v>86.9</v>
       </c>
-      <c r="CI82" t="s">
-        <v>315</v>
+      <c r="CJ82" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C83" s="17">
         <v>43881</v>
@@ -22692,7 +22692,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I83" s="26">
         <v>85</v>
@@ -22883,7 +22883,7 @@
         <v>88</v>
       </c>
       <c r="BT83" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="BU83">
         <v>16.16</v>
@@ -22927,16 +22927,16 @@
       <c r="CH83">
         <v>69.7</v>
       </c>
-      <c r="CI83" t="s">
-        <v>318</v>
+      <c r="CJ83" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="84" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C84" s="17">
         <v>43886</v>
@@ -22948,16 +22948,16 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I84" s="26">
         <v>86</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K84" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>100</v>
@@ -22989,7 +22989,7 @@
         <v>182</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="W84">
         <v>1</v>
@@ -23139,7 +23139,7 @@
         <v>83</v>
       </c>
       <c r="BT84" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="BU84">
         <v>18.149999999999999</v>
@@ -23184,12 +23184,12 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="85" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B85" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C85" s="17">
         <v>43922</v>
@@ -23201,7 +23201,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I85" s="26">
         <v>87</v>
@@ -23242,7 +23242,7 @@
         <v>82</v>
       </c>
       <c r="V85" s="31" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W85">
         <v>1</v>
@@ -23392,7 +23392,7 @@
         <v>83</v>
       </c>
       <c r="BT85" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="BU85">
         <v>3.45</v>
@@ -23436,16 +23436,16 @@
       <c r="CH85">
         <v>47.8</v>
       </c>
-      <c r="CI85" t="s">
-        <v>326</v>
+      <c r="CJ85" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C86" s="17">
         <v>43936</v>
@@ -23457,16 +23457,16 @@
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I86" s="26">
         <v>88</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K86" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L86" s="33" t="s">
         <v>100</v>
@@ -23498,7 +23498,7 @@
         <v>122</v>
       </c>
       <c r="V86" s="31" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="W86">
         <v>1</v>
@@ -23648,7 +23648,7 @@
         <v>83</v>
       </c>
       <c r="BT86" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="BU86">
         <v>1.39</v>
@@ -23693,12 +23693,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C87" s="17">
         <v>43970</v>
@@ -23710,7 +23710,7 @@
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I87" s="26">
         <v>89</v>
@@ -23745,13 +23745,13 @@
         <v>80</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="U87" s="8" t="s">
         <v>122</v>
       </c>
       <c r="V87" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="W87">
         <v>1</v>
@@ -23901,7 +23901,7 @@
         <v>83</v>
       </c>
       <c r="BT87" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="BU87">
         <v>8.51</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I88" s="12">
         <v>9</v>
@@ -24203,12 +24203,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C89" s="17">
         <v>43973</v>
@@ -24220,7 +24220,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I89" s="26">
         <v>90</v>
@@ -24261,7 +24261,7 @@
         <v>82</v>
       </c>
       <c r="V89" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W89">
         <v>1</v>
@@ -24455,19 +24455,19 @@
       <c r="CH89">
         <v>82.3</v>
       </c>
-      <c r="CI89" t="s">
-        <v>335</v>
-      </c>
-      <c r="CJ89">
+      <c r="CI89">
         <v>0.06</v>
       </c>
+      <c r="CJ89" t="s">
+        <v>332</v>
+      </c>
     </row>
-    <row r="90" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B90" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C90" s="17">
         <v>44072</v>
@@ -24479,16 +24479,16 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I90" s="26">
         <v>91</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K90" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L90" s="33" t="s">
         <v>100</v>
@@ -24520,7 +24520,7 @@
         <v>190</v>
       </c>
       <c r="V90" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="W90">
         <v>1</v>
@@ -24670,7 +24670,7 @@
         <v>83</v>
       </c>
       <c r="BT90" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="BU90">
         <v>9.9499999999999993</v>
@@ -24715,18 +24715,15 @@
         <v>56.5</v>
       </c>
       <c r="CI90" t="s">
-        <v>339</v>
-      </c>
-      <c r="CK90">
-        <v>0.52</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B91" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C91" s="17">
         <v>44139</v>
@@ -24738,7 +24735,7 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I91" s="26">
         <v>92</v>
@@ -24779,7 +24776,7 @@
         <v>122</v>
       </c>
       <c r="V91" s="31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W91">
         <v>1</v>
@@ -24929,7 +24926,7 @@
         <v>83</v>
       </c>
       <c r="BT91" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="BU91">
         <v>8.85</v>
@@ -24974,15 +24971,15 @@
         <v>31.9</v>
       </c>
       <c r="CI91" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="92" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C92" s="17">
         <v>44139</v>
@@ -24994,16 +24991,16 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I92" s="26">
         <v>93</v>
       </c>
       <c r="J92" s="27" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K92" s="27" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L92" s="33" t="s">
         <v>100</v>
@@ -25035,7 +25032,7 @@
         <v>190</v>
       </c>
       <c r="V92" s="31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W92">
         <v>1</v>
@@ -25185,7 +25182,7 @@
         <v>83</v>
       </c>
       <c r="BT92" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BU92">
         <v>5.32</v>
@@ -25230,18 +25227,15 @@
         <v>27.7</v>
       </c>
       <c r="CI92" t="s">
-        <v>345</v>
-      </c>
-      <c r="CJ92">
-        <v>0.02</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="93" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C93" s="17">
         <v>44139</v>
@@ -25253,16 +25247,16 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I93" s="26">
         <v>94</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K93" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L93" s="33" t="s">
         <v>80</v>
@@ -25290,7 +25284,7 @@
         <v>122</v>
       </c>
       <c r="V93" s="30" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W93">
         <v>1</v>
@@ -25440,7 +25434,7 @@
         <v>83</v>
       </c>
       <c r="BT93" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="BU93">
         <v>8.85</v>
@@ -25485,15 +25479,15 @@
         <v>31.9</v>
       </c>
       <c r="CI93" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C94" s="17">
         <v>44147</v>
@@ -25505,7 +25499,7 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I94" s="26">
         <v>95</v>
@@ -25543,10 +25537,10 @@
         <v>81</v>
       </c>
       <c r="U94" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V94" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W94">
         <v>1</v>
@@ -25696,7 +25690,7 @@
         <v>88</v>
       </c>
       <c r="BT94" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="BU94">
         <v>0.46</v>
@@ -25741,15 +25735,15 @@
         <v>34</v>
       </c>
       <c r="CI94" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B95" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C95" s="17">
         <v>44147</v>
@@ -25761,16 +25755,16 @@
         <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I95" s="26">
         <v>96</v>
       </c>
       <c r="J95" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K95" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L95" s="33" t="s">
         <v>80</v>
@@ -25793,10 +25787,10 @@
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V95" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W95">
         <v>1</v>
@@ -25946,7 +25940,7 @@
         <v>88</v>
       </c>
       <c r="BT95" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="BU95">
         <v>0.46</v>
@@ -25991,12 +25985,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:89" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C96" s="17">
         <v>44164</v>
@@ -26008,7 +26002,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I96" s="26">
         <v>97</v>
@@ -26043,7 +26037,7 @@
         <v>122</v>
       </c>
       <c r="V96" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W96">
         <v>1</v>
@@ -26193,7 +26187,7 @@
         <v>83</v>
       </c>
       <c r="BT96" s="23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="BU96">
         <v>17.420000000000002</v>
@@ -26240,10 +26234,10 @@
     </row>
     <row r="97" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C97" s="17">
         <v>44181</v>
@@ -26255,16 +26249,16 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I97" s="26">
         <v>98</v>
       </c>
       <c r="J97" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K97" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L97" s="33" t="s">
         <v>100</v>
@@ -26296,7 +26290,7 @@
         <v>82</v>
       </c>
       <c r="V97" s="44" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="W97">
         <v>1</v>
@@ -26491,15 +26485,15 @@
         <v>65.2</v>
       </c>
       <c r="CI97" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:88" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C98" s="17">
         <v>44221</v>
@@ -26511,7 +26505,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I98" s="26">
         <v>99</v>
@@ -26552,7 +26546,7 @@
         <v>122</v>
       </c>
       <c r="V98" s="31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="W98">
         <v>1</v>
@@ -26702,7 +26696,7 @@
         <v>88</v>
       </c>
       <c r="BT98" s="23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="BU98">
         <v>10.029999999999999</v>
@@ -26747,10 +26741,10 @@
         <v>0.01</v>
       </c>
       <c r="CI98" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="CJ98" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
